--- a/IN_Supply_Chain_Model.xlsx
+++ b/IN_Supply_Chain_Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4fe3f6280d3a3a45/Duke/Internships/Summer 2021/Leidos/Supply Chain Model/Supply Chain Model 2021/Python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jwallin/Desktop/OpE-TechSquad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{CA554137-FF99-45F3-B7C9-51F73BF81E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C295FD19-78FA-4020-8993-B2A321DE1E6A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E0383E-2129-6D47-8816-969C6E30630A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="20640" windowHeight="13200" xr2:uid="{75745B62-0A82-F340-944F-874086E9959A}"/>
+    <workbookView xWindow="20" yWindow="520" windowWidth="28800" windowHeight="16080" activeTab="4" xr2:uid="{75745B62-0A82-F340-944F-874086E9959A}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Nodes!$A$1:$L$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Risks - List'!$A$1:$G$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Risks - Location'!$A$1:$N$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Risks - Type'!$A$1:$G$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Risks - Type'!$A$1:$F$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="256">
   <si>
     <t>Node ID</t>
   </si>
@@ -107,709 +107,712 @@
     <t>Edge or Node</t>
   </si>
   <si>
+    <t>Natural Factors</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Cyber</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>Bulk Storage</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>Kinetic</t>
+  </si>
+  <si>
+    <t>Accident</t>
+  </si>
+  <si>
+    <t>Nature</t>
+  </si>
+  <si>
+    <t>Tank leakage</t>
+  </si>
+  <si>
+    <t>Hazardous chemical release into the air</t>
+  </si>
+  <si>
+    <t>Unplanned pipeline maintenance</t>
+  </si>
+  <si>
+    <t>Cyber attack on pipeline</t>
+  </si>
+  <si>
+    <t>Wear and tear</t>
+  </si>
+  <si>
+    <t>Canal blockage</t>
+  </si>
+  <si>
+    <t>Train derailment</t>
+  </si>
+  <si>
+    <t>Laying out new rail tracks</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Facility fire</t>
+  </si>
+  <si>
+    <t>Hacking petroleum mixes</t>
+  </si>
+  <si>
+    <t>Throughput</t>
+  </si>
+  <si>
+    <t>Storage Capacity</t>
+  </si>
+  <si>
+    <t>Supply</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>Current Storage</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Inner Distance</t>
+  </si>
+  <si>
+    <t>Outer Distance</t>
+  </si>
+  <si>
+    <t>Risk Type</t>
+  </si>
+  <si>
+    <t>Edge Name</t>
+  </si>
+  <si>
+    <t>Resupply</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Washington AFB</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Oregon bulk storage 1</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>Oregon bulk storage 2</t>
+  </si>
+  <si>
+    <t>Idaho bulk storage</t>
+  </si>
+  <si>
+    <t>Montana bulk storage</t>
+  </si>
+  <si>
+    <t>North Dakota AFB</t>
+  </si>
+  <si>
+    <t>Wyoming bulk storage</t>
+  </si>
+  <si>
+    <t>Idaho AFB</t>
+  </si>
+  <si>
+    <t>Utah bulk storage</t>
+  </si>
+  <si>
+    <t>Nevada bulk storage 1</t>
+  </si>
+  <si>
+    <t>California bulk storage</t>
+  </si>
+  <si>
+    <t>California AFB</t>
+  </si>
+  <si>
+    <t>Nevada AFB</t>
+  </si>
+  <si>
+    <t>Nevada bulk storage 2</t>
+  </si>
+  <si>
+    <t>Arizona bulk storage</t>
+  </si>
+  <si>
+    <t>Colorado bulk storage</t>
+  </si>
+  <si>
+    <t>New Mexico bulk storage 1</t>
+  </si>
+  <si>
+    <t>New Mexico bulk storage 2</t>
+  </si>
+  <si>
+    <t>Texas bulk storage 1</t>
+  </si>
+  <si>
+    <t>Texas refinery 1</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Texas bulk storage 2</t>
+  </si>
+  <si>
+    <t>Oklahoma bulk storage 1</t>
+  </si>
+  <si>
+    <t>Oklahoma bulk storage 2</t>
+  </si>
+  <si>
+    <t>Kansas bulk storage</t>
+  </si>
+  <si>
+    <t>South Dakota bulk storage</t>
+  </si>
+  <si>
+    <t>Minnesota bulk storage</t>
+  </si>
+  <si>
+    <t>Missouri bulk storage</t>
+  </si>
+  <si>
+    <t>Arkansas bulk storage</t>
+  </si>
+  <si>
+    <t>Louisiana bulk storage</t>
+  </si>
+  <si>
+    <t>Texas refinery 2</t>
+  </si>
+  <si>
+    <t>Louisiana refinery</t>
+  </si>
+  <si>
+    <t>Alabama bulk storage</t>
+  </si>
+  <si>
+    <t>Georgia bulk storage</t>
+  </si>
+  <si>
+    <t>Florida refinery 1</t>
+  </si>
+  <si>
+    <t>Florida refinery 2</t>
+  </si>
+  <si>
+    <t>South Carolina AFB</t>
+  </si>
+  <si>
+    <t>North Carolina bulk storage</t>
+  </si>
+  <si>
+    <t>Tennessee bulk storage</t>
+  </si>
+  <si>
+    <t>Indiana bulk storage</t>
+  </si>
+  <si>
+    <t>Michigan bulk storage</t>
+  </si>
+  <si>
+    <t>Ohio bulk storage</t>
+  </si>
+  <si>
+    <t>West Virginia bulk storage</t>
+  </si>
+  <si>
+    <t>Virginia bulk storage</t>
+  </si>
+  <si>
+    <t>North Carolina AFB</t>
+  </si>
+  <si>
+    <t>Maryland AFB</t>
+  </si>
+  <si>
+    <t>New York bulk storage</t>
+  </si>
+  <si>
+    <t>New York AFB</t>
+  </si>
+  <si>
+    <t>Massachusetts AFB</t>
+  </si>
+  <si>
+    <t>Maine bulk storage</t>
+  </si>
+  <si>
+    <t>Pipeline 1</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>Railroad 1</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>Railroad</t>
+  </si>
+  <si>
+    <t>Truck 1</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>Truck</t>
+  </si>
+  <si>
+    <t>Railroad 2</t>
+  </si>
+  <si>
+    <t>Pipeline 2</t>
+  </si>
+  <si>
+    <t>Truck 2</t>
+  </si>
+  <si>
+    <t>Truck 3</t>
+  </si>
+  <si>
+    <t>Truck 4</t>
+  </si>
+  <si>
+    <t>Railroad 3</t>
+  </si>
+  <si>
+    <t>Pipeline 3</t>
+  </si>
+  <si>
+    <t>Railroad 4</t>
+  </si>
+  <si>
+    <t>Pipeline 4</t>
+  </si>
+  <si>
+    <t>Pipeline 5</t>
+  </si>
+  <si>
+    <t>Pipeline 6</t>
+  </si>
+  <si>
+    <t>Pipeline 7</t>
+  </si>
+  <si>
+    <t>Railroad 5</t>
+  </si>
+  <si>
+    <t>Ship 1</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>Ship</t>
+  </si>
+  <si>
+    <t>Railroad 6</t>
+  </si>
+  <si>
+    <t>Truck 5</t>
+  </si>
+  <si>
+    <t>Pipeline 8</t>
+  </si>
+  <si>
+    <t>Pipeline 9</t>
+  </si>
+  <si>
+    <t>Railroad 7</t>
+  </si>
+  <si>
+    <t>Pipeline 10</t>
+  </si>
+  <si>
+    <t>Railroad 8</t>
+  </si>
+  <si>
+    <t>Pipeline 11</t>
+  </si>
+  <si>
+    <t>Railroad 9</t>
+  </si>
+  <si>
+    <t>Railroad 10</t>
+  </si>
+  <si>
+    <t>Railroad 11</t>
+  </si>
+  <si>
+    <t>Pipeline 12</t>
+  </si>
+  <si>
+    <t>Railroad 12</t>
+  </si>
+  <si>
+    <t>Pipeline 13</t>
+  </si>
+  <si>
+    <t>Railroad 13</t>
+  </si>
+  <si>
+    <t>Pipeline 14</t>
+  </si>
+  <si>
+    <t>Railroad 14</t>
+  </si>
+  <si>
+    <t>Pipeline 15</t>
+  </si>
+  <si>
+    <t>Truck 6</t>
+  </si>
+  <si>
+    <t>Truck 7</t>
+  </si>
+  <si>
+    <t>Truck 8</t>
+  </si>
+  <si>
+    <t>Truck 9</t>
+  </si>
+  <si>
+    <t>Ship 2</t>
+  </si>
+  <si>
+    <t>Railroad 15</t>
+  </si>
+  <si>
+    <t>Pipeline 16</t>
+  </si>
+  <si>
+    <t>Railroad 16</t>
+  </si>
+  <si>
+    <t>Pipeline 17</t>
+  </si>
+  <si>
+    <t>Truck 10</t>
+  </si>
+  <si>
+    <t>Truck 11</t>
+  </si>
+  <si>
+    <t>Railroad 17</t>
+  </si>
+  <si>
+    <t>Pipeline 18</t>
+  </si>
+  <si>
+    <t>Railroad 18</t>
+  </si>
+  <si>
+    <t>Pipeline 19</t>
+  </si>
+  <si>
+    <t>Pipeline 20</t>
+  </si>
+  <si>
+    <t>Railroad 19</t>
+  </si>
+  <si>
+    <t>Pipeline 21</t>
+  </si>
+  <si>
+    <t>Railroad 20</t>
+  </si>
+  <si>
+    <t>Truck 12</t>
+  </si>
+  <si>
+    <t>Truck 13</t>
+  </si>
+  <si>
+    <t>Railroad 21</t>
+  </si>
+  <si>
+    <t>Railroad 22</t>
+  </si>
+  <si>
+    <t>Railroad 23</t>
+  </si>
+  <si>
+    <t>Pipeline 22</t>
+  </si>
+  <si>
+    <t>Railroad 24</t>
+  </si>
+  <si>
+    <t>Pipeline 23</t>
+  </si>
+  <si>
+    <t>Truck 14</t>
+  </si>
+  <si>
+    <t>Pipeline 24</t>
+  </si>
+  <si>
+    <t>Truck 15</t>
+  </si>
+  <si>
+    <t>Pipeline 25</t>
+  </si>
+  <si>
+    <t>Truck 16</t>
+  </si>
+  <si>
+    <t>Pipeline 26</t>
+  </si>
+  <si>
+    <t>Railroad 25</t>
+  </si>
+  <si>
+    <t>Truck 17</t>
+  </si>
+  <si>
+    <t>Pipeline 27</t>
+  </si>
+  <si>
+    <t>Railroad 26</t>
+  </si>
+  <si>
+    <t>Pipeline 28</t>
+  </si>
+  <si>
+    <t>Ship 3</t>
+  </si>
+  <si>
+    <t>Railroad 27</t>
+  </si>
+  <si>
+    <t>Pipeline 29</t>
+  </si>
+  <si>
+    <t>Truck 18</t>
+  </si>
+  <si>
+    <t>Pipeline 30</t>
+  </si>
+  <si>
+    <t>Railroad 28</t>
+  </si>
+  <si>
+    <t>Ship 4</t>
+  </si>
+  <si>
+    <t>Railroad 29</t>
+  </si>
+  <si>
+    <t>Railroad 30</t>
+  </si>
+  <si>
+    <t>Railroad 31</t>
+  </si>
+  <si>
+    <t>Pipeline 31</t>
+  </si>
+  <si>
+    <t>Pipeline 32</t>
+  </si>
+  <si>
+    <t>Railroad 32</t>
+  </si>
+  <si>
+    <t>Pipeline 33</t>
+  </si>
+  <si>
+    <t>Truck 19</t>
+  </si>
+  <si>
+    <t>Ship 5</t>
+  </si>
+  <si>
+    <t>Railroad 33</t>
+  </si>
+  <si>
+    <t>Pipeline 34</t>
+  </si>
+  <si>
+    <t>Ship 6</t>
+  </si>
+  <si>
+    <t>Ship 7</t>
+  </si>
+  <si>
+    <t>Railroad 34</t>
+  </si>
+  <si>
+    <t>Pipeline 35</t>
+  </si>
+  <si>
+    <t>Pipeline 36</t>
+  </si>
+  <si>
+    <t>Pipeline 37</t>
+  </si>
+  <si>
+    <t>Pipeline 38</t>
+  </si>
+  <si>
+    <t>Railroad 35</t>
+  </si>
+  <si>
+    <t>Pipeline 39</t>
+  </si>
+  <si>
+    <t>Railroad 36</t>
+  </si>
+  <si>
+    <t>Pipeline 40</t>
+  </si>
+  <si>
+    <t>Railroad 37</t>
+  </si>
+  <si>
+    <t>Pipeline 41</t>
+  </si>
+  <si>
+    <t>Truck 20</t>
+  </si>
+  <si>
+    <t>Railroad 38</t>
+  </si>
+  <si>
+    <t>Pipeline 42</t>
+  </si>
+  <si>
+    <t>Railroad 39</t>
+  </si>
+  <si>
+    <t>Pipeline 43</t>
+  </si>
+  <si>
+    <t>Truck 21</t>
+  </si>
+  <si>
+    <t>Truck 22</t>
+  </si>
+  <si>
+    <t>Railroad 40</t>
+  </si>
+  <si>
+    <t>Truck 23</t>
+  </si>
+  <si>
+    <t>Railroad 41</t>
+  </si>
+  <si>
+    <t>Pipeline 44</t>
+  </si>
+  <si>
+    <t>Railroad 42</t>
+  </si>
+  <si>
+    <t>Truck 24</t>
+  </si>
+  <si>
+    <t>Railroad 43</t>
+  </si>
+  <si>
+    <t>Pipeline 45</t>
+  </si>
+  <si>
+    <t>Truck 25</t>
+  </si>
+  <si>
+    <t>Railroad 44</t>
+  </si>
+  <si>
+    <t>Pipeline 46</t>
+  </si>
+  <si>
+    <t>Railroad 45</t>
+  </si>
+  <si>
+    <t>Hurricane</t>
+  </si>
+  <si>
+    <t>Gulf Coast hurricane</t>
+  </si>
+  <si>
+    <t>Polar vortex</t>
+  </si>
+  <si>
+    <t>Extreme cold weather</t>
+  </si>
+  <si>
+    <t>Heat wave</t>
+  </si>
+  <si>
+    <t>Extreme hot weather</t>
+  </si>
+  <si>
+    <t>Winter storm bad driving conditions</t>
+  </si>
+  <si>
+    <t>Hurricane cuase elongated route change</t>
+  </si>
+  <si>
+    <t>Maple syrup flood</t>
+  </si>
+  <si>
+    <t>Canadian maple syrup flood moving South</t>
+  </si>
+  <si>
+    <t>Lobster blocade</t>
+  </si>
+  <si>
+    <t>Lobsters blocking ship transport</t>
+  </si>
+  <si>
+    <t>Nails on highway</t>
+  </si>
+  <si>
+    <t>Nails pop truck tires</t>
+  </si>
+  <si>
+    <t>Risk Description</t>
+  </si>
+  <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>Natural Factors</t>
-  </si>
-  <si>
-    <t>Circle</t>
-  </si>
-  <si>
-    <t>Box</t>
-  </si>
-  <si>
-    <t>Cyber</t>
-  </si>
-  <si>
-    <t>Edge</t>
-  </si>
-  <si>
-    <t>Bulk Storage</t>
-  </si>
-  <si>
-    <t>Production</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Maintenance</t>
-  </si>
-  <si>
-    <t>Node</t>
-  </si>
-  <si>
-    <t>Kinetic</t>
-  </si>
-  <si>
-    <t>Accident</t>
-  </si>
-  <si>
-    <t>Nature</t>
-  </si>
-  <si>
-    <t>Tank leakage</t>
-  </si>
-  <si>
-    <t>Hazardous chemical release into the air</t>
-  </si>
-  <si>
-    <t>Unplanned pipeline maintenance</t>
-  </si>
-  <si>
-    <t>Cyber attack on pipeline</t>
-  </si>
-  <si>
-    <t>Wear and tear</t>
-  </si>
-  <si>
-    <t>Canal blockage</t>
-  </si>
-  <si>
-    <t>Train derailment</t>
-  </si>
-  <si>
-    <t>Laying out new rail tracks</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>Facility fire</t>
-  </si>
-  <si>
-    <t>Hacking petroleum mixes</t>
-  </si>
-  <si>
-    <t>Throughput</t>
-  </si>
-  <si>
-    <t>Storage Capacity</t>
-  </si>
-  <si>
-    <t>Supply</t>
-  </si>
-  <si>
-    <t>Demand</t>
-  </si>
-  <si>
-    <t>Current Storage</t>
-  </si>
-  <si>
-    <t>Capacity</t>
-  </si>
-  <si>
-    <t>Inner Distance</t>
-  </si>
-  <si>
-    <t>Outer Distance</t>
-  </si>
-  <si>
-    <t>Risk Type</t>
-  </si>
-  <si>
-    <t>Edge Name</t>
-  </si>
-  <si>
-    <t>Resupply</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Washington AFB</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Oregon bulk storage 1</t>
-  </si>
-  <si>
-    <t>Intermediate</t>
-  </si>
-  <si>
-    <t>Oregon bulk storage 2</t>
-  </si>
-  <si>
-    <t>Idaho bulk storage</t>
-  </si>
-  <si>
-    <t>Montana bulk storage</t>
-  </si>
-  <si>
-    <t>North Dakota AFB</t>
-  </si>
-  <si>
-    <t>Wyoming bulk storage</t>
-  </si>
-  <si>
-    <t>Idaho AFB</t>
-  </si>
-  <si>
-    <t>Utah bulk storage</t>
-  </si>
-  <si>
-    <t>Nevada bulk storage 1</t>
-  </si>
-  <si>
-    <t>California bulk storage</t>
-  </si>
-  <si>
-    <t>California AFB</t>
-  </si>
-  <si>
-    <t>Nevada AFB</t>
-  </si>
-  <si>
-    <t>Nevada bulk storage 2</t>
-  </si>
-  <si>
-    <t>Arizona bulk storage</t>
-  </si>
-  <si>
-    <t>Colorado bulk storage</t>
-  </si>
-  <si>
-    <t>New Mexico bulk storage 1</t>
-  </si>
-  <si>
-    <t>New Mexico bulk storage 2</t>
-  </si>
-  <si>
-    <t>Texas bulk storage 1</t>
-  </si>
-  <si>
-    <t>Texas refinery 1</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Texas bulk storage 2</t>
-  </si>
-  <si>
-    <t>Oklahoma bulk storage 1</t>
-  </si>
-  <si>
-    <t>Oklahoma bulk storage 2</t>
-  </si>
-  <si>
-    <t>Kansas bulk storage</t>
-  </si>
-  <si>
-    <t>South Dakota bulk storage</t>
-  </si>
-  <si>
-    <t>Minnesota bulk storage</t>
-  </si>
-  <si>
-    <t>Missouri bulk storage</t>
-  </si>
-  <si>
-    <t>Arkansas bulk storage</t>
-  </si>
-  <si>
-    <t>Louisiana bulk storage</t>
-  </si>
-  <si>
-    <t>Texas refinery 2</t>
-  </si>
-  <si>
-    <t>Louisiana refinery</t>
-  </si>
-  <si>
-    <t>Alabama bulk storage</t>
-  </si>
-  <si>
-    <t>Georgia bulk storage</t>
-  </si>
-  <si>
-    <t>Florida refinery 1</t>
-  </si>
-  <si>
-    <t>Florida refinery 2</t>
-  </si>
-  <si>
-    <t>South Carolina AFB</t>
-  </si>
-  <si>
-    <t>North Carolina bulk storage</t>
-  </si>
-  <si>
-    <t>Tennessee bulk storage</t>
-  </si>
-  <si>
-    <t>Indiana bulk storage</t>
-  </si>
-  <si>
-    <t>Michigan bulk storage</t>
-  </si>
-  <si>
-    <t>Ohio bulk storage</t>
-  </si>
-  <si>
-    <t>West Virginia bulk storage</t>
-  </si>
-  <si>
-    <t>Virginia bulk storage</t>
-  </si>
-  <si>
-    <t>North Carolina AFB</t>
-  </si>
-  <si>
-    <t>Maryland AFB</t>
-  </si>
-  <si>
-    <t>New York bulk storage</t>
-  </si>
-  <si>
-    <t>New York AFB</t>
-  </si>
-  <si>
-    <t>Massachusetts AFB</t>
-  </si>
-  <si>
-    <t>Maine bulk storage</t>
-  </si>
-  <si>
-    <t>Pipeline 1</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>Pipeline</t>
-  </si>
-  <si>
-    <t>Railroad 1</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>Railroad</t>
-  </si>
-  <si>
-    <t>Truck 1</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>Truck</t>
-  </si>
-  <si>
-    <t>Railroad 2</t>
-  </si>
-  <si>
-    <t>Pipeline 2</t>
-  </si>
-  <si>
-    <t>Truck 2</t>
-  </si>
-  <si>
-    <t>Truck 3</t>
-  </si>
-  <si>
-    <t>Truck 4</t>
-  </si>
-  <si>
-    <t>Railroad 3</t>
-  </si>
-  <si>
-    <t>Pipeline 3</t>
-  </si>
-  <si>
-    <t>Railroad 4</t>
-  </si>
-  <si>
-    <t>Pipeline 4</t>
-  </si>
-  <si>
-    <t>Pipeline 5</t>
-  </si>
-  <si>
-    <t>Pipeline 6</t>
-  </si>
-  <si>
-    <t>Pipeline 7</t>
-  </si>
-  <si>
-    <t>Railroad 5</t>
-  </si>
-  <si>
-    <t>Ship 1</t>
-  </si>
-  <si>
-    <t>purple</t>
-  </si>
-  <si>
-    <t>Ship</t>
-  </si>
-  <si>
-    <t>Railroad 6</t>
-  </si>
-  <si>
-    <t>Truck 5</t>
-  </si>
-  <si>
-    <t>Pipeline 8</t>
-  </si>
-  <si>
-    <t>Pipeline 9</t>
-  </si>
-  <si>
-    <t>Railroad 7</t>
-  </si>
-  <si>
-    <t>Pipeline 10</t>
-  </si>
-  <si>
-    <t>Railroad 8</t>
-  </si>
-  <si>
-    <t>Pipeline 11</t>
-  </si>
-  <si>
-    <t>Railroad 9</t>
-  </si>
-  <si>
-    <t>Railroad 10</t>
-  </si>
-  <si>
-    <t>Railroad 11</t>
-  </si>
-  <si>
-    <t>Pipeline 12</t>
-  </si>
-  <si>
-    <t>Railroad 12</t>
-  </si>
-  <si>
-    <t>Pipeline 13</t>
-  </si>
-  <si>
-    <t>Railroad 13</t>
-  </si>
-  <si>
-    <t>Pipeline 14</t>
-  </si>
-  <si>
-    <t>Railroad 14</t>
-  </si>
-  <si>
-    <t>Pipeline 15</t>
-  </si>
-  <si>
-    <t>Truck 6</t>
-  </si>
-  <si>
-    <t>Truck 7</t>
-  </si>
-  <si>
-    <t>Truck 8</t>
-  </si>
-  <si>
-    <t>Truck 9</t>
-  </si>
-  <si>
-    <t>Ship 2</t>
-  </si>
-  <si>
-    <t>Railroad 15</t>
-  </si>
-  <si>
-    <t>Pipeline 16</t>
-  </si>
-  <si>
-    <t>Railroad 16</t>
-  </si>
-  <si>
-    <t>Pipeline 17</t>
-  </si>
-  <si>
-    <t>Truck 10</t>
-  </si>
-  <si>
-    <t>Truck 11</t>
-  </si>
-  <si>
-    <t>Railroad 17</t>
-  </si>
-  <si>
-    <t>Pipeline 18</t>
-  </si>
-  <si>
-    <t>Railroad 18</t>
-  </si>
-  <si>
-    <t>Pipeline 19</t>
-  </si>
-  <si>
-    <t>Pipeline 20</t>
-  </si>
-  <si>
-    <t>Railroad 19</t>
-  </si>
-  <si>
-    <t>Pipeline 21</t>
-  </si>
-  <si>
-    <t>Railroad 20</t>
-  </si>
-  <si>
-    <t>Truck 12</t>
-  </si>
-  <si>
-    <t>Truck 13</t>
-  </si>
-  <si>
-    <t>Railroad 21</t>
-  </si>
-  <si>
-    <t>Railroad 22</t>
-  </si>
-  <si>
-    <t>Railroad 23</t>
-  </si>
-  <si>
-    <t>Pipeline 22</t>
-  </si>
-  <si>
-    <t>Railroad 24</t>
-  </si>
-  <si>
-    <t>Pipeline 23</t>
-  </si>
-  <si>
-    <t>Truck 14</t>
-  </si>
-  <si>
-    <t>Pipeline 24</t>
-  </si>
-  <si>
-    <t>Truck 15</t>
-  </si>
-  <si>
-    <t>Pipeline 25</t>
-  </si>
-  <si>
-    <t>Truck 16</t>
-  </si>
-  <si>
-    <t>Pipeline 26</t>
-  </si>
-  <si>
-    <t>Railroad 25</t>
-  </si>
-  <si>
-    <t>Truck 17</t>
-  </si>
-  <si>
-    <t>Pipeline 27</t>
-  </si>
-  <si>
-    <t>Railroad 26</t>
-  </si>
-  <si>
-    <t>Pipeline 28</t>
-  </si>
-  <si>
-    <t>Ship 3</t>
-  </si>
-  <si>
-    <t>Railroad 27</t>
-  </si>
-  <si>
-    <t>Pipeline 29</t>
-  </si>
-  <si>
-    <t>Truck 18</t>
-  </si>
-  <si>
-    <t>Pipeline 30</t>
-  </si>
-  <si>
-    <t>Railroad 28</t>
-  </si>
-  <si>
-    <t>Ship 4</t>
-  </si>
-  <si>
-    <t>Railroad 29</t>
-  </si>
-  <si>
-    <t>Railroad 30</t>
-  </si>
-  <si>
-    <t>Railroad 31</t>
-  </si>
-  <si>
-    <t>Pipeline 31</t>
-  </si>
-  <si>
-    <t>Pipeline 32</t>
-  </si>
-  <si>
-    <t>Railroad 32</t>
-  </si>
-  <si>
-    <t>Pipeline 33</t>
-  </si>
-  <si>
-    <t>Truck 19</t>
-  </si>
-  <si>
-    <t>Ship 5</t>
-  </si>
-  <si>
-    <t>Railroad 33</t>
-  </si>
-  <si>
-    <t>Pipeline 34</t>
-  </si>
-  <si>
-    <t>Ship 6</t>
-  </si>
-  <si>
-    <t>Ship 7</t>
-  </si>
-  <si>
-    <t>Railroad 34</t>
-  </si>
-  <si>
-    <t>Pipeline 35</t>
-  </si>
-  <si>
-    <t>Pipeline 36</t>
-  </si>
-  <si>
-    <t>Pipeline 37</t>
-  </si>
-  <si>
-    <t>Pipeline 38</t>
-  </si>
-  <si>
-    <t>Railroad 35</t>
-  </si>
-  <si>
-    <t>Pipeline 39</t>
-  </si>
-  <si>
-    <t>Railroad 36</t>
-  </si>
-  <si>
-    <t>Pipeline 40</t>
-  </si>
-  <si>
-    <t>Railroad 37</t>
-  </si>
-  <si>
-    <t>Pipeline 41</t>
-  </si>
-  <si>
-    <t>Truck 20</t>
-  </si>
-  <si>
-    <t>Railroad 38</t>
-  </si>
-  <si>
-    <t>Pipeline 42</t>
-  </si>
-  <si>
-    <t>Railroad 39</t>
-  </si>
-  <si>
-    <t>Pipeline 43</t>
-  </si>
-  <si>
-    <t>Truck 21</t>
-  </si>
-  <si>
-    <t>Truck 22</t>
-  </si>
-  <si>
-    <t>Railroad 40</t>
-  </si>
-  <si>
-    <t>Truck 23</t>
-  </si>
-  <si>
-    <t>Railroad 41</t>
-  </si>
-  <si>
-    <t>Pipeline 44</t>
-  </si>
-  <si>
-    <t>Railroad 42</t>
-  </si>
-  <si>
-    <t>Truck 24</t>
-  </si>
-  <si>
-    <t>Railroad 43</t>
-  </si>
-  <si>
-    <t>Pipeline 45</t>
-  </si>
-  <si>
-    <t>Truck 25</t>
-  </si>
-  <si>
-    <t>Railroad 44</t>
-  </si>
-  <si>
-    <t>Pipeline 46</t>
-  </si>
-  <si>
-    <t>Railroad 45</t>
-  </si>
-  <si>
-    <t>Hurricane</t>
-  </si>
-  <si>
-    <t>Gulf Coast hurricane</t>
-  </si>
-  <si>
-    <t>Polar vortex</t>
-  </si>
-  <si>
-    <t>Extreme cold weather</t>
-  </si>
-  <si>
-    <t>Heat wave</t>
-  </si>
-  <si>
-    <t>Extreme hot weather</t>
-  </si>
-  <si>
-    <t>Winter storm bad driving conditions</t>
-  </si>
-  <si>
-    <t>Hurricane cuase elongated route change</t>
-  </si>
-  <si>
-    <t>Maple syrup flood</t>
-  </si>
-  <si>
-    <t>Canadian maple syrup flood moving South</t>
-  </si>
-  <si>
-    <t>Lobster blocade</t>
-  </si>
-  <si>
-    <t>Lobsters blocking ship transport</t>
-  </si>
-  <si>
-    <t>Nails on highway</t>
-  </si>
-  <si>
-    <t>Nails pop truck tires</t>
   </si>
 </sst>
 </file>
@@ -886,7 +889,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -894,7 +897,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1212,20 +1214,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DD056B-E119-F540-854F-59DD668322C4}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
-    <col min="2" max="2" width="44.8125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6875" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1239,22 +1241,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -1263,18 +1265,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2">
         <v>8500</v>
@@ -1282,7 +1284,7 @@
       <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>0</v>
       </c>
       <c r="H2" s="2">
@@ -1292,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K2">
         <v>47.28</v>
@@ -1301,18 +1303,18 @@
         <v>-122.2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
         <v>60</v>
       </c>
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2">
         <v>46030</v>
@@ -1320,7 +1322,7 @@
       <c r="F3" s="2">
         <v>2301.5</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>0</v>
       </c>
       <c r="H3" s="2">
@@ -1330,7 +1332,7 @@
         <v>1521</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K3">
         <v>45.66</v>
@@ -1339,18 +1341,18 @@
         <v>-122.53</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2">
         <v>49907</v>
@@ -1358,7 +1360,7 @@
       <c r="F4" s="2">
         <v>2495.35</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>0</v>
       </c>
       <c r="H4" s="2">
@@ -1368,7 +1370,7 @@
         <v>614</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4">
         <v>45.8</v>
@@ -1377,18 +1379,18 @@
         <v>-118.53</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2">
         <v>52720</v>
@@ -1396,7 +1398,7 @@
       <c r="F5" s="2">
         <v>2636</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>0</v>
       </c>
       <c r="H5" s="2">
@@ -1406,7 +1408,7 @@
         <v>955</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K5">
         <v>47.16</v>
@@ -1415,18 +1417,18 @@
         <v>-116.56</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2">
         <v>54739</v>
@@ -1434,7 +1436,7 @@
       <c r="F6" s="2">
         <v>2736.95</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>0</v>
       </c>
       <c r="H6" s="2">
@@ -1444,7 +1446,7 @@
         <v>735</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K6">
         <v>45.21</v>
@@ -1453,18 +1455,18 @@
         <v>-107.77</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2">
         <v>16000</v>
@@ -1472,7 +1474,7 @@
       <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>0</v>
       </c>
       <c r="H7" s="2">
@@ -1482,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K7">
         <v>47.81</v>
@@ -1491,18 +1493,18 @@
         <v>-103.28</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2">
         <v>53422</v>
@@ -1510,7 +1512,7 @@
       <c r="F8" s="2">
         <v>2671.1</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>0</v>
       </c>
       <c r="H8" s="2">
@@ -1520,7 +1522,7 @@
         <v>798</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K8">
         <v>41.38</v>
@@ -1529,18 +1531,18 @@
         <v>-109.79</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2">
         <v>11500</v>
@@ -1548,7 +1550,7 @@
       <c r="F9" s="2">
         <v>0</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>0</v>
       </c>
       <c r="H9" s="2">
@@ -1558,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K9">
         <v>42.68</v>
@@ -1567,18 +1569,18 @@
         <v>-112.16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2">
         <v>50100</v>
@@ -1586,7 +1588,7 @@
       <c r="F10" s="2">
         <v>2505</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>0</v>
       </c>
       <c r="H10" s="2">
@@ -1596,7 +1598,7 @@
         <v>1944</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K10">
         <v>39.840000000000003</v>
@@ -1605,18 +1607,18 @@
         <v>-112.25</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2">
         <v>48024</v>
@@ -1624,7 +1626,7 @@
       <c r="F11" s="2">
         <v>2401.1999999999998</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>0</v>
       </c>
       <c r="H11" s="2">
@@ -1634,7 +1636,7 @@
         <v>393</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K11">
         <v>40.71</v>
@@ -1643,18 +1645,18 @@
         <v>-117</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2">
         <v>53527</v>
@@ -1662,7 +1664,7 @@
       <c r="F12" s="2">
         <v>2676.35</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>0</v>
       </c>
       <c r="H12" s="2">
@@ -1672,7 +1674,7 @@
         <v>967</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K12">
         <v>39.770000000000003</v>
@@ -1681,18 +1683,18 @@
         <v>-123.42</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="2">
         <v>20000</v>
@@ -1700,7 +1702,7 @@
       <c r="F13" s="2">
         <v>0</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>0</v>
       </c>
       <c r="H13" s="2">
@@ -1710,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K13">
         <v>34.6</v>
@@ -1719,18 +1721,18 @@
         <v>-120.08</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2">
         <v>4000</v>
@@ -1738,7 +1740,7 @@
       <c r="F14" s="2">
         <v>0</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>0</v>
       </c>
       <c r="H14" s="2">
@@ -1748,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K14">
         <v>36.39</v>
@@ -1757,18 +1759,18 @@
         <v>-115.15</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2">
         <v>45907</v>
@@ -1786,7 +1788,7 @@
         <v>1416</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K15">
         <v>35.1</v>
@@ -1795,18 +1797,18 @@
         <v>-114.71</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="2">
         <v>48215</v>
@@ -1824,7 +1826,7 @@
         <v>1820</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16">
         <v>33.28</v>
@@ -1833,18 +1835,18 @@
         <v>-111.81</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="2">
         <v>47245</v>
@@ -1862,7 +1864,7 @@
         <v>1634</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K17">
         <v>39.64</v>
@@ -1871,18 +1873,18 @@
         <v>-104.69</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2">
         <v>50878</v>
@@ -1900,7 +1902,7 @@
         <v>1248</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K18">
         <v>33.94</v>
@@ -1909,18 +1911,18 @@
         <v>-107.77</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="2">
         <v>47256</v>
@@ -1938,7 +1940,7 @@
         <v>623</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K19">
         <v>32.1</v>
@@ -1947,18 +1949,18 @@
         <v>-106.64</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="2">
         <v>48652</v>
@@ -1976,7 +1978,7 @@
         <v>1384</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K20">
         <v>32.01</v>
@@ -1985,18 +1987,18 @@
         <v>-103.05</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
         <v>79</v>
       </c>
-      <c r="C21" t="s">
-        <v>80</v>
-      </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="2">
         <v>42000</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K21">
         <v>26.57</v>
@@ -2023,18 +2025,18 @@
         <v>-98.11</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" s="2">
         <v>53222</v>
@@ -2052,7 +2054,7 @@
         <v>1448</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K22">
         <v>29.38</v>
@@ -2061,18 +2063,18 @@
         <v>-98.5</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" s="2">
         <v>50669</v>
@@ -2090,7 +2092,7 @@
         <v>1320</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K23">
         <v>35.28</v>
@@ -2099,18 +2101,18 @@
         <v>-99.48</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" s="2">
         <v>47556</v>
@@ -2128,7 +2130,7 @@
         <v>415</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K24">
         <v>36.590000000000003</v>
@@ -2137,18 +2139,18 @@
         <v>-99.08</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" s="2">
         <v>46702</v>
@@ -2166,7 +2168,7 @@
         <v>1115</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K25">
         <v>39.74</v>
@@ -2175,18 +2177,18 @@
         <v>-95.48</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" s="2">
         <v>49044</v>
@@ -2204,7 +2206,7 @@
         <v>1513</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K26">
         <v>42.73</v>
@@ -2213,18 +2215,18 @@
         <v>-96.76</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27" s="2">
         <v>48104</v>
@@ -2242,7 +2244,7 @@
         <v>455</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K27">
         <v>44.84</v>
@@ -2251,18 +2253,18 @@
         <v>-93.1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E28" s="2">
         <v>46485</v>
@@ -2280,7 +2282,7 @@
         <v>1462</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K28">
         <v>38.03</v>
@@ -2289,18 +2291,18 @@
         <v>-90.33</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" s="2">
         <v>48888</v>
@@ -2318,7 +2320,7 @@
         <v>493</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K29">
         <v>35.21</v>
@@ -2327,18 +2329,18 @@
         <v>-90.16</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30" s="2">
         <v>54002</v>
@@ -2356,7 +2358,7 @@
         <v>388</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K30">
         <v>32.36</v>
@@ -2365,18 +2367,18 @@
         <v>-93.54</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E31" s="2">
         <v>18000</v>
@@ -2394,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K31">
         <v>29.66</v>
@@ -2403,18 +2405,18 @@
         <v>-95.12</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E32" s="2">
         <v>23000</v>
@@ -2432,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K32">
         <v>29.65</v>
@@ -2441,18 +2443,18 @@
         <v>-90.77</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E33" s="2">
         <v>45103</v>
@@ -2470,7 +2472,7 @@
         <v>744</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K33">
         <v>33.72</v>
@@ -2479,18 +2481,18 @@
         <v>-86.59</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E34" s="2">
         <v>49550</v>
@@ -2508,7 +2510,7 @@
         <v>919</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K34">
         <v>33.869999999999997</v>
@@ -2517,18 +2519,18 @@
         <v>-84.39</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E35" s="2">
         <v>31000</v>
@@ -2546,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K35">
         <v>37</v>
@@ -2555,18 +2557,18 @@
         <v>-82.15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E36" s="2">
         <v>36000</v>
@@ -2584,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K36">
         <v>29.23</v>
@@ -2593,18 +2595,18 @@
         <v>-81.13</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E37" s="2">
         <v>6500</v>
@@ -2622,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K37">
         <v>33.54</v>
@@ -2631,18 +2633,18 @@
         <v>-79.150000000000006</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E38" s="2">
         <v>46973</v>
@@ -2660,7 +2662,7 @@
         <v>1557</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K38">
         <v>34.85</v>
@@ -2669,18 +2671,18 @@
         <v>-79.59</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E39" s="2">
         <v>52876</v>
@@ -2698,7 +2700,7 @@
         <v>2041</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K39">
         <v>36.228000000000002</v>
@@ -2707,18 +2709,18 @@
         <v>-87.31</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E40" s="2">
         <v>52727</v>
@@ -2736,7 +2738,7 @@
         <v>1379</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K40">
         <v>40.409999999999997</v>
@@ -2745,18 +2747,18 @@
         <v>-85.9</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E41" s="2">
         <v>54005</v>
@@ -2774,7 +2776,7 @@
         <v>1838</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K41">
         <v>41.81</v>
@@ -2783,18 +2785,18 @@
         <v>-83.47</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E42" s="2">
         <v>50861</v>
@@ -2812,7 +2814,7 @@
         <v>385</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K42">
         <v>39.299999999999997</v>
@@ -2821,18 +2823,18 @@
         <v>-82.47</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E43" s="2">
         <v>45745</v>
@@ -2850,7 +2852,7 @@
         <v>484</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K43">
         <v>39.47</v>
@@ -2859,18 +2861,18 @@
         <v>-79.92</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E44" s="2">
         <v>51919</v>
@@ -2888,7 +2890,7 @@
         <v>517</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K44">
         <v>38.17</v>
@@ -2897,18 +2899,18 @@
         <v>-78.03</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E45" s="2">
         <v>14500</v>
@@ -2926,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K45">
         <v>35.57</v>
@@ -2935,18 +2937,18 @@
         <v>-76.67</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E46" s="2">
         <v>16000</v>
@@ -2964,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K46">
         <v>38.29</v>
@@ -2973,18 +2975,18 @@
         <v>-76.39</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E47" s="2">
         <v>54165</v>
@@ -3002,7 +3004,7 @@
         <v>1148</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K47">
         <v>43.04</v>
@@ -3011,18 +3013,18 @@
         <v>-78.430000000000007</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E48" s="2">
         <v>15000</v>
@@ -3033,14 +3035,14 @@
       <c r="G48" s="2">
         <v>0</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="5">
         <v>13500</v>
       </c>
       <c r="I48" s="2">
         <v>0</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K48">
         <v>40.61</v>
@@ -3049,18 +3051,18 @@
         <v>-73.95</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E49" s="2">
         <v>18000</v>
@@ -3071,14 +3073,14 @@
       <c r="G49" s="2">
         <v>0</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="5">
         <v>16200</v>
       </c>
       <c r="I49" s="2">
         <v>0</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K49">
         <v>42.2</v>
@@ -3087,18 +3089,18 @@
         <v>-71.010000000000005</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E50" s="2">
         <v>53056</v>
@@ -3109,14 +3111,14 @@
       <c r="G50" s="2">
         <v>0</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="5">
         <v>0</v>
       </c>
       <c r="I50" s="2">
         <v>1923</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K50">
         <v>44.37</v>
@@ -3125,19 +3127,19 @@
         <v>-68.319999999999993</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="6"/>
+      <c r="H51" s="5"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="6"/>
+      <c r="H52" s="5"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
@@ -3154,19 +3156,19 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="24.4375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
-    <col min="6" max="6" width="21.9375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="1" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3177,7 +3179,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3186,10 +3188,10 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3200,19 +3202,19 @@
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" t="s">
         <v>111</v>
       </c>
-      <c r="F2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>65627</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3223,19 +3225,19 @@
         <v>11</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" t="s">
         <v>114</v>
       </c>
-      <c r="F3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>64163</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3246,19 +3248,19 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" t="s">
         <v>117</v>
       </c>
-      <c r="F4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>37775</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3269,19 +3271,19 @@
         <v>2</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" t="s">
         <v>114</v>
       </c>
-      <c r="F5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>53411</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3292,19 +3294,19 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" t="s">
         <v>111</v>
       </c>
-      <c r="F6" t="s">
-        <v>112</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>25437</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3315,19 +3317,19 @@
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" t="s">
         <v>117</v>
       </c>
-      <c r="F7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>51966</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3338,19 +3340,19 @@
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" t="s">
         <v>117</v>
       </c>
-      <c r="F8" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>33701</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3361,19 +3363,19 @@
         <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" t="s">
         <v>117</v>
       </c>
-      <c r="F9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>51645</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3384,19 +3386,19 @@
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" t="s">
         <v>114</v>
       </c>
-      <c r="F10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>55521</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3407,19 +3409,19 @@
         <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" t="s">
         <v>111</v>
       </c>
-      <c r="F11" t="s">
-        <v>112</v>
-      </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>48574</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3430,19 +3432,19 @@
         <v>13</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" t="s">
         <v>114</v>
       </c>
-      <c r="F12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>77138</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3453,19 +3455,19 @@
         <v>8</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" t="s">
         <v>111</v>
       </c>
-      <c r="F13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>71864</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3476,19 +3478,19 @@
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" t="s">
         <v>111</v>
       </c>
-      <c r="F14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>47774</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3499,19 +3501,19 @@
         <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" t="s">
         <v>111</v>
       </c>
-      <c r="F15" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>29599</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3522,19 +3524,19 @@
         <v>12</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E16" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" t="s">
         <v>111</v>
       </c>
-      <c r="F16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>28083</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3545,19 +3547,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" t="s">
         <v>114</v>
       </c>
-      <c r="F17" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>30263</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3568,19 +3570,19 @@
         <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" t="s">
         <v>133</v>
       </c>
-      <c r="F18" t="s">
-        <v>134</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>22220</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3591,19 +3593,19 @@
         <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" t="s">
         <v>114</v>
       </c>
-      <c r="F19" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>64381</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3614,19 +3616,19 @@
         <v>3</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" t="s">
         <v>117</v>
       </c>
-      <c r="F20" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>56440</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3637,19 +3639,19 @@
         <v>9</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" t="s">
         <v>111</v>
       </c>
-      <c r="F21" t="s">
-        <v>112</v>
-      </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>51458</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3660,19 +3662,19 @@
         <v>10</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" t="s">
         <v>111</v>
       </c>
-      <c r="F22" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>44104</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3683,19 +3685,19 @@
         <v>12</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" t="s">
         <v>114</v>
       </c>
-      <c r="F23" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>28384</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3706,19 +3708,19 @@
         <v>12</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" t="s">
         <v>111</v>
       </c>
-      <c r="F24" t="s">
-        <v>112</v>
-      </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>25080</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3729,19 +3731,19 @@
         <v>13</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" t="s">
         <v>114</v>
       </c>
-      <c r="F25" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <v>27521</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3752,19 +3754,19 @@
         <v>5</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" t="s">
         <v>111</v>
       </c>
-      <c r="F26" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <v>30976</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3775,19 +3777,19 @@
         <v>9</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E27" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" t="s">
         <v>114</v>
       </c>
-      <c r="F27" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" s="6">
+      <c r="G27" s="5">
         <v>43212</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3798,19 +3800,19 @@
         <v>25</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" t="s">
         <v>114</v>
       </c>
-      <c r="F28" t="s">
-        <v>115</v>
-      </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <v>76457</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3821,19 +3823,19 @@
         <v>9</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" t="s">
         <v>114</v>
       </c>
-      <c r="F29" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" s="6">
+      <c r="G29" s="5">
         <v>79009</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3844,19 +3846,19 @@
         <v>9</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" t="s">
         <v>111</v>
       </c>
-      <c r="F30" t="s">
-        <v>112</v>
-      </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <v>50939</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -3867,19 +3869,19 @@
         <v>15</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E31" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" t="s">
         <v>114</v>
       </c>
-      <c r="F31" t="s">
-        <v>115</v>
-      </c>
-      <c r="G31" s="6">
+      <c r="G31" s="5">
         <v>37614</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3890,19 +3892,19 @@
         <v>15</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" t="s">
         <v>111</v>
       </c>
-      <c r="F32" t="s">
-        <v>112</v>
-      </c>
-      <c r="G32" s="6">
+      <c r="G32" s="5">
         <v>27759</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3913,19 +3915,19 @@
         <v>16</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" t="s">
         <v>114</v>
       </c>
-      <c r="F33" t="s">
-        <v>115</v>
-      </c>
-      <c r="G33" s="6">
+      <c r="G33" s="5">
         <v>69355</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3936,19 +3938,19 @@
         <v>16</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" t="s">
         <v>111</v>
       </c>
-      <c r="F34" t="s">
-        <v>112</v>
-      </c>
-      <c r="G34" s="6">
+      <c r="G34" s="5">
         <v>63368</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3959,19 +3961,19 @@
         <v>17</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" t="s">
         <v>114</v>
       </c>
-      <c r="F35" t="s">
-        <v>115</v>
-      </c>
-      <c r="G35" s="6">
+      <c r="G35" s="5">
         <v>60328</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3982,19 +3984,19 @@
         <v>17</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E36" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" t="s">
         <v>111</v>
       </c>
-      <c r="F36" t="s">
-        <v>112</v>
-      </c>
-      <c r="G36" s="6">
+      <c r="G36" s="5">
         <v>74166</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -4005,19 +4007,19 @@
         <v>7</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E37" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" t="s">
         <v>117</v>
       </c>
-      <c r="F37" t="s">
-        <v>118</v>
-      </c>
-      <c r="G37" s="6">
+      <c r="G37" s="5">
         <v>22365</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4028,19 +4030,19 @@
         <v>14</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E38" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" t="s">
         <v>117</v>
       </c>
-      <c r="F38" t="s">
-        <v>118</v>
-      </c>
-      <c r="G38" s="6">
+      <c r="G38" s="5">
         <v>27558</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -4051,19 +4053,19 @@
         <v>22</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E39" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39" t="s">
         <v>117</v>
       </c>
-      <c r="F39" t="s">
-        <v>118</v>
-      </c>
-      <c r="G39" s="6">
+      <c r="G39" s="5">
         <v>45152</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -4074,19 +4076,19 @@
         <v>19</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F40" t="s">
         <v>117</v>
       </c>
-      <c r="F40" t="s">
-        <v>118</v>
-      </c>
-      <c r="G40" s="6">
+      <c r="G40" s="5">
         <v>45447</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -4097,19 +4099,19 @@
         <v>47</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E41" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" t="s">
         <v>133</v>
       </c>
-      <c r="F41" t="s">
-        <v>134</v>
-      </c>
-      <c r="G41" s="6">
+      <c r="G41" s="5">
         <v>67495</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -4120,19 +4122,19 @@
         <v>18</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E42" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" t="s">
         <v>114</v>
       </c>
-      <c r="F42" t="s">
-        <v>115</v>
-      </c>
-      <c r="G42" s="6">
+      <c r="G42" s="5">
         <v>44647</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -4143,19 +4145,19 @@
         <v>18</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E43" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" t="s">
         <v>111</v>
       </c>
-      <c r="F43" t="s">
-        <v>112</v>
-      </c>
-      <c r="G43" s="6">
+      <c r="G43" s="5">
         <v>43136</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -4166,19 +4168,19 @@
         <v>23</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E44" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44" t="s">
         <v>114</v>
       </c>
-      <c r="F44" t="s">
-        <v>115</v>
-      </c>
-      <c r="G44" s="6">
+      <c r="G44" s="5">
         <v>24753</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -4189,19 +4191,19 @@
         <v>23</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E45" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F45" t="s">
         <v>111</v>
       </c>
-      <c r="F45" t="s">
-        <v>112</v>
-      </c>
-      <c r="G45" s="6">
+      <c r="G45" s="5">
         <v>38044</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -4212,19 +4214,19 @@
         <v>7</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E46" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" t="s">
         <v>117</v>
       </c>
-      <c r="F46" t="s">
-        <v>118</v>
-      </c>
-      <c r="G46" s="6">
+      <c r="G46" s="5">
         <v>70429</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -4235,19 +4237,19 @@
         <v>26</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E47" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F47" t="s">
         <v>117</v>
       </c>
-      <c r="F47" t="s">
-        <v>118</v>
-      </c>
-      <c r="G47" s="6">
+      <c r="G47" s="5">
         <v>64090</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -4258,19 +4260,19 @@
         <v>16</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E48" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" t="s">
         <v>114</v>
       </c>
-      <c r="F48" t="s">
-        <v>115</v>
-      </c>
-      <c r="G48" s="6">
+      <c r="G48" s="5">
         <v>50454</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -4281,19 +4283,19 @@
         <v>16</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E49" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F49" t="s">
         <v>111</v>
       </c>
-      <c r="F49" t="s">
-        <v>112</v>
-      </c>
-      <c r="G49" s="6">
+      <c r="G49" s="5">
         <v>39198</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -4304,19 +4306,19 @@
         <v>24</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E50" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" t="s">
         <v>114</v>
       </c>
-      <c r="F50" t="s">
-        <v>115</v>
-      </c>
-      <c r="G50" s="6">
+      <c r="G50" s="5">
         <v>53911</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -4327,19 +4329,19 @@
         <v>24</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E51" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51" t="s">
         <v>111</v>
       </c>
-      <c r="F51" t="s">
-        <v>112</v>
-      </c>
-      <c r="G51" s="6">
+      <c r="G51" s="5">
         <v>52646</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -4350,19 +4352,19 @@
         <v>16</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E52" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" t="s">
         <v>111</v>
       </c>
-      <c r="F52" t="s">
-        <v>112</v>
-      </c>
-      <c r="G52" s="6">
+      <c r="G52" s="5">
         <v>29632</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -4373,19 +4375,19 @@
         <v>26</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E53" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" t="s">
         <v>114</v>
       </c>
-      <c r="F53" t="s">
-        <v>115</v>
-      </c>
-      <c r="G53" s="6">
+      <c r="G53" s="5">
         <v>42023</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -4396,19 +4398,19 @@
         <v>26</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E54" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F54" t="s">
         <v>111</v>
       </c>
-      <c r="F54" t="s">
-        <v>112</v>
-      </c>
-      <c r="G54" s="6">
+      <c r="G54" s="5">
         <v>79428</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -4419,19 +4421,19 @@
         <v>26</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E55" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" t="s">
         <v>114</v>
       </c>
-      <c r="F55" t="s">
-        <v>115</v>
-      </c>
-      <c r="G55" s="6">
+      <c r="G55" s="5">
         <v>25707</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -4442,19 +4444,19 @@
         <v>6</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E56" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F56" t="s">
         <v>117</v>
       </c>
-      <c r="F56" t="s">
-        <v>118</v>
-      </c>
-      <c r="G56" s="6">
+      <c r="G56" s="5">
         <v>67774</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -4465,19 +4467,19 @@
         <v>40</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E57" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" t="s">
         <v>117</v>
       </c>
-      <c r="F57" t="s">
-        <v>118</v>
-      </c>
-      <c r="G57" s="6">
+      <c r="G57" s="5">
         <v>64357</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -4488,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E58" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F58" t="s">
         <v>114</v>
       </c>
-      <c r="F58" t="s">
-        <v>115</v>
-      </c>
-      <c r="G58" s="6">
+      <c r="G58" s="5">
         <v>73526</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -4511,19 +4513,19 @@
         <v>26</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E59" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59" t="s">
         <v>114</v>
       </c>
-      <c r="F59" t="s">
-        <v>115</v>
-      </c>
-      <c r="G59" s="6">
+      <c r="G59" s="5">
         <v>77211</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -4534,19 +4536,19 @@
         <v>39</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E60" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F60" t="s">
         <v>114</v>
       </c>
-      <c r="F60" t="s">
-        <v>115</v>
-      </c>
-      <c r="G60" s="6">
+      <c r="G60" s="5">
         <v>56170</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -4557,19 +4559,19 @@
         <v>24</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E61" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F61" t="s">
         <v>111</v>
       </c>
-      <c r="F61" t="s">
-        <v>112</v>
-      </c>
-      <c r="G61" s="6">
+      <c r="G61" s="5">
         <v>26211</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -4580,19 +4582,19 @@
         <v>27</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E62" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F62" t="s">
         <v>114</v>
       </c>
-      <c r="F62" t="s">
-        <v>115</v>
-      </c>
-      <c r="G62" s="6">
+      <c r="G62" s="5">
         <v>28050</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -4603,19 +4605,19 @@
         <v>38</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E63" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F63" t="s">
         <v>111</v>
       </c>
-      <c r="F63" t="s">
-        <v>112</v>
-      </c>
-      <c r="G63" s="6">
+      <c r="G63" s="5">
         <v>21480</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -4626,19 +4628,19 @@
         <v>22</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E64" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F64" t="s">
         <v>117</v>
       </c>
-      <c r="F64" t="s">
-        <v>118</v>
-      </c>
-      <c r="G64" s="6">
+      <c r="G64" s="5">
         <v>44065</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -4649,19 +4651,19 @@
         <v>23</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E65" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F65" t="s">
         <v>111</v>
       </c>
-      <c r="F65" t="s">
-        <v>112</v>
-      </c>
-      <c r="G65" s="6">
+      <c r="G65" s="5">
         <v>58672</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -4672,19 +4674,19 @@
         <v>26</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E66" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F66" t="s">
         <v>117</v>
       </c>
-      <c r="F66" t="s">
-        <v>118</v>
-      </c>
-      <c r="G66" s="6">
+      <c r="G66" s="5">
         <v>68622</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -4695,19 +4697,19 @@
         <v>28</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E67" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F67" t="s">
         <v>111</v>
       </c>
-      <c r="F67" t="s">
-        <v>112</v>
-      </c>
-      <c r="G67" s="6">
+      <c r="G67" s="5">
         <v>54630</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -4718,19 +4720,19 @@
         <v>40</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E68" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F68" t="s">
         <v>117</v>
       </c>
-      <c r="F68" t="s">
-        <v>118</v>
-      </c>
-      <c r="G68" s="6">
+      <c r="G68" s="5">
         <v>27995</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -4741,19 +4743,19 @@
         <v>21</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E69" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F69" t="s">
         <v>111</v>
       </c>
-      <c r="F69" t="s">
-        <v>112</v>
-      </c>
-      <c r="G69" s="6">
+      <c r="G69" s="5">
         <v>79145</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -4764,19 +4766,19 @@
         <v>21</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E70" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F70" t="s">
         <v>114</v>
       </c>
-      <c r="F70" t="s">
-        <v>115</v>
-      </c>
-      <c r="G70" s="6">
+      <c r="G70" s="5">
         <v>78006</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -4787,19 +4789,19 @@
         <v>22</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E71" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F71" t="s">
         <v>117</v>
       </c>
-      <c r="F71" t="s">
-        <v>118</v>
-      </c>
-      <c r="G71" s="6">
+      <c r="G71" s="5">
         <v>59961</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -4810,19 +4812,19 @@
         <v>23</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E72" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F72" t="s">
         <v>111</v>
       </c>
-      <c r="F72" t="s">
-        <v>112</v>
-      </c>
-      <c r="G72" s="6">
+      <c r="G72" s="5">
         <v>76358</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -4833,19 +4835,19 @@
         <v>28</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E73" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F73" t="s">
         <v>114</v>
       </c>
-      <c r="F73" t="s">
-        <v>115</v>
-      </c>
-      <c r="G73" s="6">
+      <c r="G73" s="5">
         <v>41461</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -4856,19 +4858,19 @@
         <v>31</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E74" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F74" t="s">
         <v>111</v>
       </c>
-      <c r="F74" t="s">
-        <v>112</v>
-      </c>
-      <c r="G74" s="6">
+      <c r="G74" s="5">
         <v>43119</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -4879,19 +4881,19 @@
         <v>45</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E75" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F75" t="s">
         <v>133</v>
       </c>
-      <c r="F75" t="s">
-        <v>134</v>
-      </c>
-      <c r="G75" s="6">
+      <c r="G75" s="5">
         <v>47068</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -4902,19 +4904,19 @@
         <v>28</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E76" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F76" t="s">
         <v>114</v>
       </c>
-      <c r="F76" t="s">
-        <v>115</v>
-      </c>
-      <c r="G76" s="6">
+      <c r="G76" s="5">
         <v>73800</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -4925,19 +4927,19 @@
         <v>28</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E77" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F77" t="s">
         <v>111</v>
       </c>
-      <c r="F77" t="s">
-        <v>112</v>
-      </c>
-      <c r="G77" s="6">
+      <c r="G77" s="5">
         <v>65539</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -4948,19 +4950,19 @@
         <v>29</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E78" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F78" t="s">
         <v>117</v>
       </c>
-      <c r="F78" t="s">
-        <v>118</v>
-      </c>
-      <c r="G78" s="6">
+      <c r="G78" s="5">
         <v>66176</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -4971,19 +4973,19 @@
         <v>29</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E79" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F79" t="s">
         <v>111</v>
       </c>
-      <c r="F79" t="s">
-        <v>112</v>
-      </c>
-      <c r="G79" s="6">
+      <c r="G79" s="5">
         <v>78039</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -4994,19 +4996,19 @@
         <v>32</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E80" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F80" t="s">
         <v>114</v>
       </c>
-      <c r="F80" t="s">
-        <v>115</v>
-      </c>
-      <c r="G80" s="6">
+      <c r="G80" s="5">
         <v>69864</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -5017,19 +5019,19 @@
         <v>44</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E81" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F81" t="s">
         <v>133</v>
       </c>
-      <c r="F81" t="s">
-        <v>134</v>
-      </c>
-      <c r="G81" s="6">
+      <c r="G81" s="5">
         <v>59292</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -5040,19 +5042,19 @@
         <v>28</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E82" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F82" t="s">
         <v>114</v>
       </c>
-      <c r="F82" t="s">
-        <v>115</v>
-      </c>
-      <c r="G82" s="6">
+      <c r="G82" s="5">
         <v>68852</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -5063,19 +5065,19 @@
         <v>33</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E83" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F83" t="s">
         <v>114</v>
       </c>
-      <c r="F83" t="s">
-        <v>115</v>
-      </c>
-      <c r="G83" s="6">
+      <c r="G83" s="5">
         <v>67678</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -5086,19 +5088,19 @@
         <v>37</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E84" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F84" t="s">
         <v>114</v>
       </c>
-      <c r="F84" t="s">
-        <v>115</v>
-      </c>
-      <c r="G84" s="6">
+      <c r="G84" s="5">
         <v>23723</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -5109,19 +5111,19 @@
         <v>37</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E85" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F85" t="s">
         <v>111</v>
       </c>
-      <c r="F85" t="s">
-        <v>112</v>
-      </c>
-      <c r="G85" s="6">
+      <c r="G85" s="5">
         <v>59309</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -5132,19 +5134,19 @@
         <v>38</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E86" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F86" t="s">
         <v>111</v>
       </c>
-      <c r="F86" t="s">
-        <v>112</v>
-      </c>
-      <c r="G86" s="6">
+      <c r="G86" s="5">
         <v>33658</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -5155,19 +5157,19 @@
         <v>33</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E87" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F87" t="s">
         <v>114</v>
       </c>
-      <c r="F87" t="s">
-        <v>115</v>
-      </c>
-      <c r="G87" s="6">
+      <c r="G87" s="5">
         <v>54607</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -5178,19 +5180,19 @@
         <v>33</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E88" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F88" t="s">
         <v>111</v>
       </c>
-      <c r="F88" t="s">
-        <v>112</v>
-      </c>
-      <c r="G88" s="6">
+      <c r="G88" s="5">
         <v>32451</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -5201,19 +5203,19 @@
         <v>42</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E89" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F89" t="s">
         <v>117</v>
       </c>
-      <c r="F89" t="s">
-        <v>118</v>
-      </c>
-      <c r="G89" s="6">
+      <c r="G89" s="5">
         <v>31452</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -5224,19 +5226,19 @@
         <v>48</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E90" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F90" t="s">
         <v>133</v>
       </c>
-      <c r="F90" t="s">
-        <v>134</v>
-      </c>
-      <c r="G90" s="6">
+      <c r="G90" s="5">
         <v>29677</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -5247,19 +5249,19 @@
         <v>33</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E91" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F91" t="s">
         <v>114</v>
       </c>
-      <c r="F91" t="s">
-        <v>115</v>
-      </c>
-      <c r="G91" s="6">
+      <c r="G91" s="5">
         <v>39866</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -5270,19 +5272,19 @@
         <v>33</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E92" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F92" t="s">
         <v>111</v>
       </c>
-      <c r="F92" t="s">
-        <v>112</v>
-      </c>
-      <c r="G92" s="6">
+      <c r="G92" s="5">
         <v>51654</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -5293,19 +5295,19 @@
         <v>36</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E93" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F93" t="s">
         <v>133</v>
       </c>
-      <c r="F93" t="s">
-        <v>134</v>
-      </c>
-      <c r="G93" s="6">
+      <c r="G93" s="5">
         <v>20959</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -5316,19 +5318,19 @@
         <v>49</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E94" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F94" t="s">
         <v>133</v>
       </c>
-      <c r="F94" t="s">
-        <v>134</v>
-      </c>
-      <c r="G94" s="6">
+      <c r="G94" s="5">
         <v>78896</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -5339,19 +5341,19 @@
         <v>43</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E95" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F95" t="s">
         <v>114</v>
       </c>
-      <c r="F95" t="s">
-        <v>115</v>
-      </c>
-      <c r="G95" s="6">
+      <c r="G95" s="5">
         <v>44440</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -5362,19 +5364,19 @@
         <v>43</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E96" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F96" t="s">
         <v>111</v>
       </c>
-      <c r="F96" t="s">
-        <v>112</v>
-      </c>
-      <c r="G96" s="6">
+      <c r="G96" s="5">
         <v>72319</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -5385,19 +5387,19 @@
         <v>37</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E97" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F97" t="s">
         <v>111</v>
       </c>
-      <c r="F97" t="s">
-        <v>112</v>
-      </c>
-      <c r="G97" s="6">
+      <c r="G97" s="5">
         <v>57281</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -5408,19 +5410,19 @@
         <v>39</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E98" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F98" t="s">
         <v>111</v>
-      </c>
-      <c r="F98" t="s">
-        <v>112</v>
       </c>
       <c r="G98">
         <v>27418</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -5431,19 +5433,19 @@
         <v>26</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E99" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F99" t="s">
         <v>111</v>
-      </c>
-      <c r="F99" t="s">
-        <v>112</v>
       </c>
       <c r="G99">
         <v>34388</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -5454,19 +5456,19 @@
         <v>41</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E100" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F100" t="s">
         <v>114</v>
-      </c>
-      <c r="F100" t="s">
-        <v>115</v>
       </c>
       <c r="G100">
         <v>59332</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -5477,19 +5479,19 @@
         <v>41</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E101" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F101" t="s">
         <v>111</v>
-      </c>
-      <c r="F101" t="s">
-        <v>112</v>
       </c>
       <c r="G101">
         <v>59347</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -5500,19 +5502,19 @@
         <v>39</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E102" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F102" t="s">
         <v>114</v>
-      </c>
-      <c r="F102" t="s">
-        <v>115</v>
       </c>
       <c r="G102">
         <v>28122</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -5523,19 +5525,19 @@
         <v>39</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E103" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F103" t="s">
         <v>111</v>
-      </c>
-      <c r="F103" t="s">
-        <v>112</v>
       </c>
       <c r="G103">
         <v>65091</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -5546,19 +5548,19 @@
         <v>41</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E104" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F104" t="s">
         <v>114</v>
-      </c>
-      <c r="F104" t="s">
-        <v>115</v>
       </c>
       <c r="G104">
         <v>74919</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -5569,19 +5571,19 @@
         <v>41</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E105" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F105" t="s">
         <v>111</v>
-      </c>
-      <c r="F105" t="s">
-        <v>112</v>
       </c>
       <c r="G105">
         <v>32651</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -5592,19 +5594,19 @@
         <v>46</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E106" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F106" t="s">
         <v>117</v>
-      </c>
-      <c r="F106" t="s">
-        <v>118</v>
       </c>
       <c r="G106">
         <v>50461</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -5615,19 +5617,19 @@
         <v>46</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E107" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F107" t="s">
         <v>114</v>
-      </c>
-      <c r="F107" t="s">
-        <v>115</v>
       </c>
       <c r="G107">
         <v>71087</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -5638,19 +5640,19 @@
         <v>46</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E108" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F108" t="s">
         <v>111</v>
-      </c>
-      <c r="F108" t="s">
-        <v>112</v>
       </c>
       <c r="G108">
         <v>29829</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -5661,19 +5663,19 @@
         <v>42</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E109" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F109" t="s">
         <v>114</v>
-      </c>
-      <c r="F109" t="s">
-        <v>115</v>
       </c>
       <c r="G109">
         <v>66125</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -5684,19 +5686,19 @@
         <v>43</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E110" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F110" t="s">
         <v>111</v>
-      </c>
-      <c r="F110" t="s">
-        <v>112</v>
       </c>
       <c r="G110">
         <v>79459</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -5707,19 +5709,19 @@
         <v>40</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E111" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F111" t="s">
         <v>117</v>
-      </c>
-      <c r="F111" t="s">
-        <v>118</v>
       </c>
       <c r="G111">
         <v>32554</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -5730,19 +5732,19 @@
         <v>46</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E112" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F112" t="s">
         <v>117</v>
-      </c>
-      <c r="F112" t="s">
-        <v>118</v>
       </c>
       <c r="G112">
         <v>47679</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -5753,19 +5755,19 @@
         <v>46</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E113" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F113" t="s">
         <v>114</v>
-      </c>
-      <c r="F113" t="s">
-        <v>115</v>
       </c>
       <c r="G113">
         <v>39827</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -5776,19 +5778,19 @@
         <v>47</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E114" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F114" t="s">
         <v>117</v>
-      </c>
-      <c r="F114" t="s">
-        <v>118</v>
       </c>
       <c r="G114">
         <v>57751</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -5799,19 +5801,19 @@
         <v>47</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E115" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F115" t="s">
         <v>114</v>
-      </c>
-      <c r="F115" t="s">
-        <v>115</v>
       </c>
       <c r="G115">
         <v>72133</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -5822,19 +5824,19 @@
         <v>47</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E116" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F116" t="s">
         <v>111</v>
-      </c>
-      <c r="F116" t="s">
-        <v>112</v>
       </c>
       <c r="G116">
         <v>34496</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5845,19 +5847,19 @@
         <v>47</v>
       </c>
       <c r="D117" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E117" t="s">
+        <v>113</v>
+      </c>
+      <c r="F117" t="s">
         <v>114</v>
-      </c>
-      <c r="F117" t="s">
-        <v>115</v>
       </c>
       <c r="G117">
         <v>29303</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5868,19 +5870,19 @@
         <v>47</v>
       </c>
       <c r="D118" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E118" t="s">
+        <v>116</v>
+      </c>
+      <c r="F118" t="s">
         <v>117</v>
-      </c>
-      <c r="F118" t="s">
-        <v>118</v>
       </c>
       <c r="G118">
         <v>60456</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5891,19 +5893,19 @@
         <v>48</v>
       </c>
       <c r="D119" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E119" t="s">
+        <v>113</v>
+      </c>
+      <c r="F119" t="s">
         <v>114</v>
-      </c>
-      <c r="F119" t="s">
-        <v>115</v>
       </c>
       <c r="G119">
         <v>77606</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5914,19 +5916,19 @@
         <v>48</v>
       </c>
       <c r="D120" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E120" t="s">
+        <v>110</v>
+      </c>
+      <c r="F120" t="s">
         <v>111</v>
-      </c>
-      <c r="F120" t="s">
-        <v>112</v>
       </c>
       <c r="G120">
         <v>72395</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5937,19 +5939,19 @@
         <v>48</v>
       </c>
       <c r="D121" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E121" t="s">
+        <v>116</v>
+      </c>
+      <c r="F121" t="s">
         <v>117</v>
-      </c>
-      <c r="F121" t="s">
-        <v>118</v>
       </c>
       <c r="G121">
         <v>46521</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5960,19 +5962,19 @@
         <v>48</v>
       </c>
       <c r="D122" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E122" t="s">
+        <v>113</v>
+      </c>
+      <c r="F122" t="s">
         <v>114</v>
-      </c>
-      <c r="F122" t="s">
-        <v>115</v>
       </c>
       <c r="G122">
         <v>20357</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5983,19 +5985,19 @@
         <v>48</v>
       </c>
       <c r="D123" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E123" t="s">
+        <v>110</v>
+      </c>
+      <c r="F123" t="s">
         <v>111</v>
-      </c>
-      <c r="F123" t="s">
-        <v>112</v>
       </c>
       <c r="G123">
         <v>65910</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6006,13 +6008,13 @@
         <v>48</v>
       </c>
       <c r="D124" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E124" t="s">
+        <v>113</v>
+      </c>
+      <c r="F124" t="s">
         <v>114</v>
-      </c>
-      <c r="F124" t="s">
-        <v>115</v>
       </c>
       <c r="G124">
         <v>43533</v>
@@ -6034,15 +6036,15 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.9375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="3" width="13.3125" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -6062,10 +6064,10 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>13</v>
@@ -6086,18 +6088,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>242</v>
-      </c>
       <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="E2" s="4">
         <v>28.964908000000001</v>
@@ -6122,18 +6124,18 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>244</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -6158,18 +6160,18 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>246</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -6202,310 +6204,306 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E827E2B-D73E-924F-898F-E61606A9E5B8}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.4375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.9375" customWidth="1"/>
-    <col min="3" max="3" width="13.3125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="21.9375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>0.3</v>
+      </c>
+      <c r="F2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3">
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>0.15</v>
+      </c>
+      <c r="F4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>0.15</v>
+      </c>
+      <c r="F5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="F2">
+      <c r="E6">
         <v>0.3</v>
       </c>
-      <c r="G2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3">
-        <v>0.1</v>
-      </c>
-      <c r="G3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4">
-        <v>0.15</v>
-      </c>
-      <c r="G4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5">
-        <v>0.15</v>
-      </c>
-      <c r="G5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
       <c r="F6">
-        <v>0.3</v>
-      </c>
-      <c r="G6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="E7">
+        <v>0.1</v>
       </c>
       <c r="F7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8">
+        <v>0.3</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9">
         <v>0.1</v>
       </c>
-      <c r="G7">
+      <c r="F9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10">
+        <v>0.4</v>
+      </c>
+      <c r="F10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11">
+        <v>0.6</v>
+      </c>
+      <c r="F11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F8">
-        <v>0.3</v>
-      </c>
-      <c r="G8">
+      <c r="F12">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9">
-        <v>0.1</v>
-      </c>
-      <c r="G9">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10">
-        <v>0.4</v>
-      </c>
-      <c r="G10">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>247</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11">
-        <v>0.6</v>
-      </c>
-      <c r="G11">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
+      <c r="F13">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12">
-        <v>0.7</v>
-      </c>
-      <c r="G12">
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14">
+        <v>0.05</v>
+      </c>
+      <c r="F14">
         <v>0.35</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>134</v>
-      </c>
-      <c r="F14">
-        <v>0.05</v>
-      </c>
-      <c r="G14">
-        <v>0.35</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G19" xr:uid="{8E827E2B-D73E-924F-898F-E61606A9E5B8}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E11:E22">
-    <sortCondition ref="E11:E22"/>
+  <autoFilter ref="A1:F19" xr:uid="{8E827E2B-D73E-924F-898F-E61606A9E5B8}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D11:D22">
+    <sortCondition ref="D11:D22"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6516,33 +6514,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83AA544-5F2E-FA4F-8A6F-E3FA9FE8BA72}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.9375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.8125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>254</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>17</v>
@@ -6551,18 +6549,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>250</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="4">
         <v>6</v>
@@ -6574,20 +6572,20 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>252</v>
-      </c>
       <c r="C3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="5">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4">
         <v>98</v>
       </c>
       <c r="F3" s="4">
@@ -6597,18 +6595,18 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>254</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4">
         <v>44</v>

--- a/IN_Supply_Chain_Model.xlsx
+++ b/IN_Supply_Chain_Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jwallin/Desktop/OpE-TechSquad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E0383E-2129-6D47-8816-969C6E30630A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A423C80-D345-6E48-9655-53003FB04884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="520" windowWidth="28800" windowHeight="16080" activeTab="4" xr2:uid="{75745B62-0A82-F340-944F-874086E9959A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="4" xr2:uid="{75745B62-0A82-F340-944F-874086E9959A}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Edges!$A$1:$G$116</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Nodes!$A$1:$L$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Risks - List'!$A$1:$G$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Risks - Location'!$A$1:$N$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Risks - Location'!$B$1:$O$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Risks - Type'!$A$1:$F$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="257">
   <si>
     <t>Node ID</t>
   </si>
@@ -810,6 +810,9 @@
   </si>
   <si>
     <t>Risk Description</t>
+  </si>
+  <si>
+    <t>Risk ID</t>
   </si>
   <si>
     <t>ID</t>
@@ -1215,8 +1218,8 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3155,8 +3158,8 @@
   <dimension ref="A1:G124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A106" sqref="A106:XFD106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6029,175 +6032,187 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DF1E5C-A4B7-3742-A972-C9471E248056}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>28.964908000000001</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>-92.736005000000006</v>
       </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
       <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
         <v>400</v>
       </c>
-      <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="4">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4">
         <v>0.4</v>
       </c>
-      <c r="N2" s="4">
+      <c r="O2" s="4">
         <v>0.65</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="4">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4">
         <v>46.803829999999998</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>-94.713543999999999</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>41.512701999999997</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
         <v>-78.277997999999997</v>
       </c>
-      <c r="M3" s="4">
+      <c r="N3" s="4">
         <v>0.1</v>
       </c>
-      <c r="N3" s="4">
+      <c r="O3" s="4">
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="4">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4">
         <v>35.357709</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="4">
         <v>-121.47623900000001</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>30.073861000000001</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
         <v>-102.272138</v>
       </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
         <v>0.05</v>
       </c>
-      <c r="N4" s="4">
+      <c r="O4" s="4">
         <v>0.2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N4" xr:uid="{B4DF1E5C-A4B7-3742-A972-C9471E248056}"/>
+  <autoFilter ref="B1:O4" xr:uid="{B4DF1E5C-A4B7-3742-A972-C9471E248056}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6516,7 +6531,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6540,7 +6555,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>17</v>

--- a/IN_Supply_Chain_Model.xlsx
+++ b/IN_Supply_Chain_Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jwallin/Desktop/OpE-TechSquad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A423C80-D345-6E48-9655-53003FB04884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0CB69B-6A45-E248-B9CE-BCED210C48AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="4" xr2:uid="{75745B62-0A82-F340-944F-874086E9959A}"/>
+    <workbookView xWindow="60" yWindow="500" windowWidth="28740" windowHeight="16000" activeTab="1" xr2:uid="{75745B62-0A82-F340-944F-874086E9959A}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -1218,8 +1218,8 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3155,11 +3155,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E4197E-2803-F64D-9830-3C345B4CC258}">
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A106" sqref="A106:XFD106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J3:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3171,7 +3171,7 @@
     <col min="7" max="7" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>65627</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>64163</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>37775</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>53411</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>25437</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>51966</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>33701</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3377,8 +3377,9 @@
       <c r="G9" s="5">
         <v>51645</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3401,7 +3402,7 @@
         <v>55521</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3424,7 +3425,7 @@
         <v>48574</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3447,7 +3448,7 @@
         <v>77138</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3470,7 +3471,7 @@
         <v>71864</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3493,7 +3494,7 @@
         <v>47774</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3516,7 +3517,7 @@
         <v>29599</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -6529,7 +6530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83AA544-5F2E-FA4F-8A6F-E3FA9FE8BA72}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>

--- a/IN_Supply_Chain_Model.xlsx
+++ b/IN_Supply_Chain_Model.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jwallin/Desktop/OpE-TechSquad/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wallinja\AppData\Local\Temp\MicrosoftEdgeDownloads\b56ea8b3-0974-448f-b91c-f91b111f57f3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0CB69B-6A45-E248-B9CE-BCED210C48AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="500" windowWidth="28740" windowHeight="16000" activeTab="1" xr2:uid="{75745B62-0A82-F340-944F-874086E9959A}"/>
+    <workbookView xWindow="60" yWindow="495" windowWidth="28740" windowHeight="16005" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -22,11 +21,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Edges!$A$1:$G$116</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Nodes!$A$1:$L$25</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Risks - List'!$A$1:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Risks - List'!$B$1:$H$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Risks - Location'!$B$1:$O$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Risks - Type'!$A$1:$F$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Risks - Type'!$B$1:$G$19</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="258">
   <si>
     <t>Node ID</t>
   </si>
@@ -815,13 +814,16 @@
     <t>Risk ID</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>Target ID</t>
+  </si>
+  <si>
+    <t>Target Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1214,7 +1216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DD056B-E119-F540-854F-59DD668322C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1222,15 +1224,15 @@
       <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="2" width="44.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="44.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1268,7 +1270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1306,7 +1308,7 @@
         <v>-122.2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1344,7 +1346,7 @@
         <v>-122.53</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1382,7 +1384,7 @@
         <v>-118.53</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1420,7 +1422,7 @@
         <v>-116.56</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1458,7 +1460,7 @@
         <v>-107.77</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1496,7 +1498,7 @@
         <v>-103.28</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1534,7 +1536,7 @@
         <v>-109.79</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1572,7 +1574,7 @@
         <v>-112.16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1610,7 +1612,7 @@
         <v>-112.25</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1648,7 +1650,7 @@
         <v>-117</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1686,7 +1688,7 @@
         <v>-123.42</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1724,7 +1726,7 @@
         <v>-120.08</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1762,7 +1764,7 @@
         <v>-115.15</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1800,7 +1802,7 @@
         <v>-114.71</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1838,7 +1840,7 @@
         <v>-111.81</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1876,7 +1878,7 @@
         <v>-104.69</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1914,7 +1916,7 @@
         <v>-107.77</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1952,7 +1954,7 @@
         <v>-106.64</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1990,7 +1992,7 @@
         <v>-103.05</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2028,7 +2030,7 @@
         <v>-98.11</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2066,7 +2068,7 @@
         <v>-98.5</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2104,7 +2106,7 @@
         <v>-99.48</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2142,7 +2144,7 @@
         <v>-99.08</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2180,7 +2182,7 @@
         <v>-95.48</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2218,7 +2220,7 @@
         <v>-96.76</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2256,7 +2258,7 @@
         <v>-93.1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2294,7 +2296,7 @@
         <v>-90.33</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2332,7 +2334,7 @@
         <v>-90.16</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2370,7 +2372,7 @@
         <v>-93.54</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2408,7 +2410,7 @@
         <v>-95.12</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2446,7 +2448,7 @@
         <v>-90.77</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2484,7 +2486,7 @@
         <v>-86.59</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2522,7 +2524,7 @@
         <v>-84.39</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2560,7 +2562,7 @@
         <v>-82.15</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2598,7 +2600,7 @@
         <v>-81.13</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2636,7 +2638,7 @@
         <v>-79.150000000000006</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2674,7 +2676,7 @@
         <v>-79.59</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2712,7 +2714,7 @@
         <v>-87.31</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2750,7 +2752,7 @@
         <v>-85.9</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2788,7 +2790,7 @@
         <v>-83.47</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2826,7 +2828,7 @@
         <v>-82.47</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2864,7 +2866,7 @@
         <v>-79.92</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2902,7 +2904,7 @@
         <v>-78.03</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2940,7 +2942,7 @@
         <v>-76.67</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2978,7 +2980,7 @@
         <v>-76.39</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3016,7 +3018,7 @@
         <v>-78.430000000000007</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3054,7 +3056,7 @@
         <v>-73.95</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3092,7 +3094,7 @@
         <v>-71.010000000000005</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3130,7 +3132,7 @@
         <v>-68.319999999999993</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -3138,7 +3140,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -3147,31 +3149,31 @@
       <c r="J52" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L25" xr:uid="{B66BC203-C2E8-417C-A284-F9B9C0F7B3CD}"/>
+  <autoFilter ref="A1:L25"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E4197E-2803-F64D-9830-3C345B4CC258}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J18" sqref="J3:P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="11.83203125" customWidth="1"/>
+    <col min="1" max="3" width="11.875" customWidth="1"/>
     <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3194,7 +3196,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3217,7 +3219,7 @@
         <v>65627</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3240,7 +3242,7 @@
         <v>64163</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3263,7 +3265,7 @@
         <v>37775</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3286,7 +3288,7 @@
         <v>53411</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3309,7 +3311,7 @@
         <v>25437</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3332,7 +3334,7 @@
         <v>51966</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3355,7 +3357,7 @@
         <v>33701</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3379,7 +3381,7 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3402,7 +3404,7 @@
         <v>55521</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3425,7 +3427,7 @@
         <v>48574</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3448,7 +3450,7 @@
         <v>77138</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3471,7 +3473,7 @@
         <v>71864</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3494,7 +3496,7 @@
         <v>47774</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3517,7 +3519,7 @@
         <v>29599</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3540,7 +3542,7 @@
         <v>28083</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3563,7 +3565,7 @@
         <v>30263</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3586,7 +3588,7 @@
         <v>22220</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3609,7 +3611,7 @@
         <v>64381</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3632,7 +3634,7 @@
         <v>56440</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3655,7 +3657,7 @@
         <v>51458</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3678,7 +3680,7 @@
         <v>44104</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3701,7 +3703,7 @@
         <v>28384</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3724,7 +3726,7 @@
         <v>25080</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3747,7 +3749,7 @@
         <v>27521</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3770,7 +3772,7 @@
         <v>30976</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3793,7 +3795,7 @@
         <v>43212</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3816,7 +3818,7 @@
         <v>76457</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3839,7 +3841,7 @@
         <v>79009</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3862,7 +3864,7 @@
         <v>50939</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -3885,7 +3887,7 @@
         <v>37614</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3908,7 +3910,7 @@
         <v>27759</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3931,7 +3933,7 @@
         <v>69355</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3954,7 +3956,7 @@
         <v>63368</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3977,7 +3979,7 @@
         <v>60328</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -4000,7 +4002,7 @@
         <v>74166</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -4023,7 +4025,7 @@
         <v>22365</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4046,7 +4048,7 @@
         <v>27558</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -4069,7 +4071,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -4092,7 +4094,7 @@
         <v>45447</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -4115,7 +4117,7 @@
         <v>67495</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -4138,7 +4140,7 @@
         <v>44647</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -4161,7 +4163,7 @@
         <v>43136</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -4184,7 +4186,7 @@
         <v>24753</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -4207,7 +4209,7 @@
         <v>38044</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -4230,7 +4232,7 @@
         <v>70429</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -4253,7 +4255,7 @@
         <v>64090</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -4276,7 +4278,7 @@
         <v>50454</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -4299,7 +4301,7 @@
         <v>39198</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -4322,7 +4324,7 @@
         <v>53911</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -4345,7 +4347,7 @@
         <v>52646</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -4368,7 +4370,7 @@
         <v>29632</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -4391,7 +4393,7 @@
         <v>42023</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -4414,7 +4416,7 @@
         <v>79428</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -4437,7 +4439,7 @@
         <v>25707</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -4460,7 +4462,7 @@
         <v>67774</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -4483,7 +4485,7 @@
         <v>64357</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -4506,7 +4508,7 @@
         <v>73526</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -4529,7 +4531,7 @@
         <v>77211</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -4552,7 +4554,7 @@
         <v>56170</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -4575,7 +4577,7 @@
         <v>26211</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -4598,7 +4600,7 @@
         <v>28050</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -4621,7 +4623,7 @@
         <v>21480</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -4644,7 +4646,7 @@
         <v>44065</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -4667,7 +4669,7 @@
         <v>58672</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -4690,7 +4692,7 @@
         <v>68622</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -4713,7 +4715,7 @@
         <v>54630</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -4736,7 +4738,7 @@
         <v>27995</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -4759,7 +4761,7 @@
         <v>79145</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -4782,7 +4784,7 @@
         <v>78006</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -4805,7 +4807,7 @@
         <v>59961</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -4828,7 +4830,7 @@
         <v>76358</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -4851,7 +4853,7 @@
         <v>41461</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -4874,7 +4876,7 @@
         <v>43119</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -4897,7 +4899,7 @@
         <v>47068</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -4920,7 +4922,7 @@
         <v>73800</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -4943,7 +4945,7 @@
         <v>65539</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -4966,7 +4968,7 @@
         <v>66176</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -4989,7 +4991,7 @@
         <v>78039</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -5012,7 +5014,7 @@
         <v>69864</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -5035,7 +5037,7 @@
         <v>59292</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -5058,7 +5060,7 @@
         <v>68852</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -5081,7 +5083,7 @@
         <v>67678</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -5104,7 +5106,7 @@
         <v>23723</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -5127,7 +5129,7 @@
         <v>59309</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -5150,7 +5152,7 @@
         <v>33658</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -5173,7 +5175,7 @@
         <v>54607</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -5196,7 +5198,7 @@
         <v>32451</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -5219,7 +5221,7 @@
         <v>31452</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -5242,7 +5244,7 @@
         <v>29677</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -5265,7 +5267,7 @@
         <v>39866</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -5288,7 +5290,7 @@
         <v>51654</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -5311,7 +5313,7 @@
         <v>20959</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -5334,7 +5336,7 @@
         <v>78896</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -5357,7 +5359,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -5380,7 +5382,7 @@
         <v>72319</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -5403,7 +5405,7 @@
         <v>57281</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -5426,7 +5428,7 @@
         <v>27418</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -5449,7 +5451,7 @@
         <v>34388</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -5472,7 +5474,7 @@
         <v>59332</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -5495,7 +5497,7 @@
         <v>59347</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -5518,7 +5520,7 @@
         <v>28122</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -5541,7 +5543,7 @@
         <v>65091</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -5564,7 +5566,7 @@
         <v>74919</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -5587,7 +5589,7 @@
         <v>32651</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -5610,7 +5612,7 @@
         <v>50461</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -5633,7 +5635,7 @@
         <v>71087</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -5656,7 +5658,7 @@
         <v>29829</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -5679,7 +5681,7 @@
         <v>66125</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -5702,7 +5704,7 @@
         <v>79459</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -5725,7 +5727,7 @@
         <v>32554</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -5748,7 +5750,7 @@
         <v>47679</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -5771,7 +5773,7 @@
         <v>39827</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -5794,7 +5796,7 @@
         <v>57751</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -5817,7 +5819,7 @@
         <v>72133</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -5840,7 +5842,7 @@
         <v>34496</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5863,7 +5865,7 @@
         <v>29303</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5886,7 +5888,7 @@
         <v>60456</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5909,7 +5911,7 @@
         <v>77606</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5932,7 +5934,7 @@
         <v>72395</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5955,7 +5957,7 @@
         <v>46521</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5978,7 +5980,7 @@
         <v>20357</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6001,7 +6003,7 @@
         <v>65910</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6025,30 +6027,30 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G116" xr:uid="{C445B00C-FD09-4C61-B1FB-C6F5AD2FDF77}"/>
+  <autoFilter ref="A1:G116"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4DF1E5C-A4B7-3742-A972-C9471E248056}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="15" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>255</v>
       </c>
@@ -6095,7 +6097,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6134,7 +6136,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6173,7 +6175,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6213,313 +6215,355 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:O4" xr:uid="{B4DF1E5C-A4B7-3742-A972-C9471E248056}"/>
+  <autoFilter ref="B1:O4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E827E2B-D73E-924F-898F-E61606A9E5B8}">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.3</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.1</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.15</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.15</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.3</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>111</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.1</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>111</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.3</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>114</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.1</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>114</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.4</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
         <v>246</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>117</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.6</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
         <v>37</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>117</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.7</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
         <v>247</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>133</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.5</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.35</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>133</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.05</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.35</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F19" xr:uid="{8E827E2B-D73E-924F-898F-E61606A9E5B8}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D11:D22">
-    <sortCondition ref="D11:D22"/>
+  <autoFilter ref="B1:G19"/>
+  <sortState ref="E11:E22">
+    <sortCondition ref="E11:E22"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6527,115 +6571,127 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83AA544-5F2E-FA4F-8A6F-E3FA9FE8BA72}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="4">
+      <c r="F2" s="4">
         <v>6</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="4">
         <v>0.01</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <v>98</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="4">
         <v>0.05</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <v>44</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="4">
         <v>0.3</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G4" xr:uid="{F83AA544-5F2E-FA4F-8A6F-E3FA9FE8BA72}"/>
+  <autoFilter ref="B1:H4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>